--- a/日历.xlsx
+++ b/日历.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -23,8 +23,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,74 +76,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -6301,18 +6238,78 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="矩形 97"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="23126700"/>
+          <a:ext cx="1143000" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="A0A0A0"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -6379,6 +6376,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6413,6 +6411,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6588,19 +6587,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K30:S119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="S119" sqref="S119"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="R131" sqref="R131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="30" spans="11:11" ht="15.75" customHeight="1">
+    <row r="30" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K30" s="1"/>
     </row>
-    <row r="119" spans="19:19">
+    <row r="119" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S119" t="s">
         <v>0</v>
       </c>

--- a/日历.xlsx
+++ b/日历.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -23,8 +23,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +76,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6298,18 +6366,158 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>62580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="矩形 98"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733800" y="21612225"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>91155</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="矩形 99"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="20916900"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="A0A0A0"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -6376,7 +6584,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6411,7 +6618,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6587,19 +6793,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="K30:S119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="R131" sqref="R131"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="30" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="11:11" ht="15.75" customHeight="1">
       <c r="K30" s="1"/>
     </row>
-    <row r="119" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="19:19">
       <c r="S119" t="s">
         <v>0</v>
       </c>

--- a/日历.xlsx
+++ b/日历.xlsx
@@ -14,12 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">   v </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5992,15 +5987,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>104779</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>9530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228604</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>171454</xdr:rowOff>
+      <xdr:colOff>276230</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>76205</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6009,7 +6004,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="7458077" y="23945851"/>
+          <a:off x="7505703" y="24031577"/>
           <a:ext cx="609600" cy="19055"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6308,16 +6303,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>131</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6326,8 +6321,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2324100" y="23126700"/>
-          <a:ext cx="1143000" cy="676275"/>
+          <a:off x="209550" y="23879175"/>
+          <a:ext cx="1219200" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6501,6 +6496,201 @@
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="矩形 100"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="23126700"/>
+          <a:ext cx="676275" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>5430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="矩形 102"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4391025" y="22278975"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="矩形 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7181850" y="24183975"/>
+          <a:ext cx="1219200" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>开始上班</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6794,21 +6984,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="K30:S119"/>
+  <dimension ref="K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="G139" sqref="G139"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="R123" sqref="R123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="30" spans="11:11" ht="15.75" customHeight="1">
       <c r="K30" s="1"/>
-    </row>
-    <row r="119" spans="19:19">
-      <c r="S119" t="s">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/日历.xlsx
+++ b/日历.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -13,13 +13,9 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,74 +67,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6504,66 +6432,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="矩形 100"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4305300" y="23126700"/>
-          <a:ext cx="676275" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>123</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -6696,18 +6564,88 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>34005</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="矩形 105"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3790950" y="23031450"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="A0A0A0"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -6774,6 +6712,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6808,6 +6747,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6983,16 +6923,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="R123" sqref="R123"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="30" spans="11:11" ht="15.75" customHeight="1">
+    <row r="30" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K30" s="1"/>
     </row>
   </sheetData>

--- a/日历.xlsx
+++ b/日历.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -13,9 +13,13 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,6 +38,13 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -56,17 +67,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6634,18 +6714,288 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>610849</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="110" name="组合 109"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5934075" y="25165051"/>
+          <a:ext cx="5649574" cy="5086350"/>
+          <a:chOff x="5591175" y="25126951"/>
+          <a:chExt cx="5649574" cy="5086350"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="87" name="Picture 4"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5591175" y="25126951"/>
+            <a:ext cx="5649574" cy="5086350"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="107" name="矩形 106"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8029575" y="26879550"/>
+            <a:ext cx="2219325" cy="628650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238602</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="47625" y="25136475"/>
+          <a:ext cx="5677377" cy="5124450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304803</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="直接箭头连接符 110"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="115" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="11277603" y="26069925"/>
+          <a:ext cx="514347" cy="380998"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="矩形 114"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11791949" y="25831800"/>
+          <a:ext cx="657225" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>出发</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="A0A0A0"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -6712,7 +7062,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6747,7 +7096,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6923,17 +7271,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="K30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="K30:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="T142" sqref="T142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="30" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="11:11" ht="15.75" customHeight="1">
       <c r="K30" s="1"/>
+    </row>
+    <row r="145" spans="18:18">
+      <c r="R145" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/日历.xlsx
+++ b/日历.xlsx
@@ -11,10 +11,6 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6717,15 +6713,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>610849</xdr:colOff>
+      <xdr:colOff>582274</xdr:colOff>
       <xdr:row>167</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6734,7 +6730,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5934075" y="25165051"/>
+          <a:off x="5905500" y="25250776"/>
           <a:ext cx="5649574" cy="5086350"/>
           <a:chOff x="5591175" y="25126951"/>
           <a:chExt cx="5649574" cy="5086350"/>
@@ -6779,8 +6775,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8029575" y="26879550"/>
-            <a:ext cx="2219325" cy="628650"/>
+            <a:off x="5829300" y="26879550"/>
+            <a:ext cx="5162549" cy="628650"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6869,16 +6865,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609603</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>304803</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>9523</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>38098</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6889,7 +6885,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="11277603" y="26069925"/>
+          <a:off x="10896603" y="26279475"/>
           <a:ext cx="514347" cy="380998"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6921,16 +6917,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6939,7 +6935,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11791949" y="25831800"/>
+          <a:off x="11410949" y="26041350"/>
           <a:ext cx="657225" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6979,6 +6975,186 @@
             </a:rPr>
             <a:t>出发</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="矩形 116"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143626" y="27622501"/>
+          <a:ext cx="1352550" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="矩形 117"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10620376" y="26412824"/>
+          <a:ext cx="685799" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="矩形 118"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6915151" y="28289249"/>
+          <a:ext cx="685799" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7274,8 +7450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="K30:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="T142" sqref="T142"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="R151" sqref="R151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/日历.xlsx
+++ b/日历.xlsx
@@ -7102,16 +7102,253 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>129255</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="矩形 112"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10001250" y="27470100"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>334736</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="30603825"/>
+          <a:ext cx="5821136" cy="5257800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
       <xdr:row>159</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="矩形 113"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10591801" y="28860751"/>
+          <a:ext cx="742949" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="矩形 115"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6076951" y="29489400"/>
+          <a:ext cx="771524" cy="666749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304802</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7120,8 +7357,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6915151" y="28289249"/>
-          <a:ext cx="685799" cy="561975"/>
+          <a:off x="990602" y="31794450"/>
+          <a:ext cx="714373" cy="723899"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7450,8 +7687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="K30:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="R151" sqref="R151"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="O178" sqref="O178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/日历.xlsx
+++ b/日历.xlsx
@@ -7392,6 +7392,263 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>34005</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="矩形 119"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10039350" y="28098750"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>14955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="矩形 120"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10848975" y="28079700"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="直接箭头连接符 121"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="123" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7286625" y="27946350"/>
+          <a:ext cx="333374" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="矩形 122"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7619999" y="27993975"/>
+          <a:ext cx="657225" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>到达</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7687,8 +7944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="K30:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="O178" sqref="O178"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="S154" sqref="S154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/日历.xlsx
+++ b/日历.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -14,8 +14,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,74 +75,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -7397,18 +7329,158 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>62580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="矩形 119"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10010775" y="28127325"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>14955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="矩形 120"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10782300" y="28079700"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="A0A0A0"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -7475,6 +7547,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -7509,6 +7582,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7684,19 +7758,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K30:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="O178" sqref="O178"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="R155" sqref="R155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="30" spans="11:11" ht="15.75" customHeight="1">
+    <row r="30" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K30" s="1"/>
     </row>
-    <row r="145" spans="18:18">
+    <row r="145" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R145" s="2"/>
     </row>
   </sheetData>

--- a/日历.xlsx
+++ b/日历.xlsx
@@ -7392,6 +7392,146 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>53055</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="矩形 119"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="28117800"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>167355</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="矩形 120"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10829925" y="28051125"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7687,8 +7827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="K30:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="O178" sqref="O178"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="S156" sqref="S156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/日历.xlsx
+++ b/日历.xlsx
@@ -7488,6 +7488,76 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10829925" y="28051125"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>157830</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="矩形 121"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="32385000"/>
           <a:ext cx="838200" cy="548355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7827,8 +7897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="K30:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="S156" sqref="S156"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="M182" sqref="M182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/日历.xlsx
+++ b/日历.xlsx
@@ -7558,6 +7558,216 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4276725" y="32385000"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>81630</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="矩形 122"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314825" y="33213675"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>72105</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="矩形 123"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086350" y="33204150"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>72105</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="矩形 124"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4391025" y="33928050"/>
           <a:ext cx="838200" cy="548355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7897,8 +8107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="K30:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="M182" sqref="M182"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="M185" sqref="M185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/日历.xlsx
+++ b/日历.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -7768,6 +7769,383 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4391025" y="33928050"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>139440</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6057899" y="30803850"/>
+          <a:ext cx="6425941" cy="5105400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="矩形 125"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6296024" y="33937575"/>
+          <a:ext cx="771525" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="矩形 126"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10563224" y="33099375"/>
+          <a:ext cx="1733551" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>72105</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="矩形 127"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11077575" y="31213425"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>81630</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="矩形 128"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11706225" y="31222950"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>53055</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="矩形 129"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11010900" y="32099250"/>
           <a:ext cx="838200" cy="548355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8107,8 +8485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="K30:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="M185" sqref="M185"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="T190" sqref="T190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8125,4 +8503,17 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/日历.xlsx
+++ b/日历.xlsx
@@ -7928,73 +7928,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>187</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="矩形 126"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10563224" y="33099375"/>
-          <a:ext cx="1733551" cy="866775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>172</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>175</xdr:row>
       <xdr:rowOff>72105</xdr:rowOff>
     </xdr:to>
@@ -8005,7 +7945,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11077575" y="31213425"/>
+          <a:off x="10934700" y="31213425"/>
           <a:ext cx="838200" cy="548355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8057,14 +7997,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>172</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>175</xdr:row>
       <xdr:rowOff>81630</xdr:rowOff>
     </xdr:to>
@@ -8075,7 +8015,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11706225" y="31222950"/>
+          <a:off x="11563350" y="31222950"/>
           <a:ext cx="838200" cy="548355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8127,14 +8067,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>177</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>180</xdr:row>
       <xdr:rowOff>53055</xdr:rowOff>
     </xdr:to>
@@ -8145,7 +8085,147 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11010900" y="32099250"/>
+          <a:off x="10925175" y="32099250"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>34005</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="矩形 130"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10820400" y="32985075"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>34005</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="矩形 131"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11801475" y="32985075"/>
           <a:ext cx="838200" cy="548355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8485,8 +8565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="K30:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="T190" sqref="T190"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="T178" sqref="T178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/日历.xlsx
+++ b/日历.xlsx
@@ -8226,6 +8226,870 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11801475" y="32985075"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="矩形 132"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10953750" y="33880425"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>222852</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="36033075"/>
+          <a:ext cx="5709252" cy="5124450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>95000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6162675" y="35994976"/>
+          <a:ext cx="5743575" cy="5200399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>72105</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="矩形 134"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4210050" y="39538275"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>62580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="矩形 135"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5010150" y="39528750"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>167355</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="矩形 136"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257675" y="38909625"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>91155</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="矩形 137"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286250" y="38290500"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>167355</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="矩形 138"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4248150" y="37642800"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>62580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="矩形 139"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10325100" y="36995100"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>91155</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="矩形 140"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11096625" y="37023675"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>157830</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="矩形 141"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10325100" y="37814250"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>110205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="矩形 142"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10420350" y="38671500"/>
+          <a:ext cx="838200" cy="548355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>53055</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="矩形 143"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11163300" y="38614350"/>
           <a:ext cx="838200" cy="548355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8565,8 +9429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="K30:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="T178" sqref="T178"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="T213" sqref="T213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/日历.xlsx
+++ b/日历.xlsx
@@ -310,16 +310,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>157830</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -328,7 +328,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5514974" y="38100"/>
+          <a:off x="4171949" y="2524125"/>
           <a:ext cx="466726" cy="348330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -376,56 +376,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228602</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85723</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="150" name="直接箭头连接符 149"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="5029202" y="1771649"/>
-          <a:ext cx="323849" cy="304799"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -490,8 +440,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>200022</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
@@ -508,8 +458,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6372222" y="1066800"/>
-          <a:ext cx="5153027" cy="752475"/>
+          <a:off x="7810500" y="1066800"/>
+          <a:ext cx="3714749" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -839,7 +789,7 @@
   <dimension ref="K30:R145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/日历.xlsx
+++ b/日历.xlsx
@@ -498,6 +498,136 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152398</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324598" y="1781175"/>
+          <a:ext cx="762002" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>167355</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11153775" y="1809750"/>
+          <a:ext cx="466726" cy="348330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -789,7 +919,7 @@
   <dimension ref="K30:R145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/日历.xlsx
+++ b/日历.xlsx
@@ -560,25 +560,1615 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>647701</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>167355</xdr:rowOff>
+      <xdr:rowOff>157830</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="矩形 8"/>
+        <xdr:cNvPr id="10" name="矩形 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11153775" y="1809750"/>
+          <a:off x="10401300" y="1800225"/>
+          <a:ext cx="466726" cy="348330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10448925" y="2562225"/>
+          <a:ext cx="466726" cy="348330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>5430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10496550" y="3276600"/>
+          <a:ext cx="466726" cy="348330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5248275"/>
+          <a:ext cx="5915025" cy="5305425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4619626" y="4524375"/>
+          <a:ext cx="2276475" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>14955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矩形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5181600" y="6381750"/>
+          <a:ext cx="466726" cy="348330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>119730</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="矩形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591050" y="7210425"/>
+          <a:ext cx="466726" cy="348330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>62580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="矩形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4562475" y="8058150"/>
+          <a:ext cx="466726" cy="348330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>110205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矩形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4562475" y="8829675"/>
+          <a:ext cx="466726" cy="348330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409402</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6162675" y="5295900"/>
+          <a:ext cx="5905327" cy="5324475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>685798</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="矩形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10286998" y="6467476"/>
+          <a:ext cx="1504952" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>32644</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="10877550"/>
+          <a:ext cx="5648325" cy="5099944"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="矩形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11068050" y="9058275"/>
+          <a:ext cx="876300" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="矩形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6334125" y="9772650"/>
+          <a:ext cx="876300" cy="685799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="矩形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="12058650"/>
+          <a:ext cx="704850" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接箭头连接符 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7210425" y="9448800"/>
+          <a:ext cx="3390900" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>138780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="矩形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10677525" y="7772400"/>
+          <a:ext cx="466726" cy="348330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5953125" y="10839450"/>
+          <a:ext cx="5905500" cy="5334000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>53055</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="矩形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10715625" y="8410575"/>
+          <a:ext cx="466726" cy="348330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="矩形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10039349" y="12058650"/>
+          <a:ext cx="1609725" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="矩形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6095999" y="12782550"/>
+          <a:ext cx="5572126" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直接箭头连接符 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5191126" y="12420600"/>
+          <a:ext cx="5286375" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接箭头连接符 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4476751" y="12496798"/>
+          <a:ext cx="6791325" cy="2076451"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>148305</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="矩形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11515725" y="9048750"/>
+          <a:ext cx="466726" cy="348330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="矩形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4248150" y="12001500"/>
+          <a:ext cx="466726" cy="348330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="矩形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5038725" y="12001500"/>
+          <a:ext cx="466726" cy="348330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>157830</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="矩形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="12677775"/>
           <a:ext cx="466726" cy="348330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -918,8 +2508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="K30:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="T80" sqref="T80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/日历.xlsx
+++ b/日历.xlsx
@@ -2169,6 +2169,76 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4229100" y="12677775"/>
+          <a:ext cx="466726" cy="348330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>72105</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="矩形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4324350" y="13496925"/>
           <a:ext cx="466726" cy="348330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">

--- a/日历.xlsx
+++ b/日历.xlsx
@@ -12,10 +12,6 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1377,15 +1373,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1395,8 +1391,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9001126" y="7324725"/>
-          <a:ext cx="2362200" cy="790575"/>
+          <a:off x="6115051" y="8048625"/>
+          <a:ext cx="1638299" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1809,25 +1805,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>14955</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="矩形 50"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8734424" y="13601700"/>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>53055</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="矩形 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6438900" y="3867150"/>
           <a:ext cx="847725" cy="348330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1874,25 +1870,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>167355</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="矩形 51"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8886824" y="13754100"/>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>43530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="矩形 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7181850" y="3857625"/>
           <a:ext cx="847725" cy="348330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1939,25 +1935,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>138780</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="矩形 52"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9039224" y="13906500"/>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>81630</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="矩形 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001000" y="3895725"/>
           <a:ext cx="847725" cy="348330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2004,25 +2000,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>53055</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="矩形 53"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6438900" y="3867150"/>
+      <xdr:rowOff>100680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="矩形 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8934450" y="3914775"/>
           <a:ext cx="847725" cy="348330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2069,25 +2065,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>43530</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="矩形 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7181850" y="3857625"/>
+      <xdr:rowOff>62580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="矩形 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9572625" y="3876675"/>
           <a:ext cx="847725" cy="348330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2134,25 +2130,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>81630</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="矩形 55"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8001000" y="3895725"/>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>62580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="矩形 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6229350"/>
           <a:ext cx="847725" cy="348330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2199,25 +2195,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>100680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="矩形 56"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8934450" y="3914775"/>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>176880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="矩形 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="10325100"/>
           <a:ext cx="847725" cy="348330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2262,27 +2258,74 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>62580</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="矩形 57"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9572625" y="3876675"/>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11401425"/>
+          <a:ext cx="5886450" cy="5334000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>110205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="矩形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7010400" y="8086725"/>
           <a:ext cx="847725" cy="348330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2320,7 +2363,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>调</a:t>
+            <a:t>事假</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2329,25 +2372,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>62580</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="矩形 58"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="6229350"/>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>119730</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="矩形 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6315075" y="8096250"/>
           <a:ext cx="847725" cy="348330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2385,7 +2428,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>调</a:t>
+            <a:t>年休</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2394,25 +2437,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>176880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="矩形 59"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4114800" y="10325100"/>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>110205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="矩形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10725150" y="9534525"/>
           <a:ext cx="847725" cy="348330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2450,8 +2493,128 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>调</a:t>
+            <a:t>班</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="矩形 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9048750" y="7372350"/>
+          <a:ext cx="2171700" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="矩形 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="12611100"/>
+          <a:ext cx="3124200" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2747,8 +2910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="R87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="S57" sqref="S57"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="N77" sqref="N77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/日历.xlsx
+++ b/日历.xlsx
@@ -1743,14 +1743,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>调</a:t>
-          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1805,201 +1802,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>53055</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="矩形 53"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6438900" y="3867150"/>
-          <a:ext cx="847725" cy="348330"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>调</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>43530</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="矩形 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7181850" y="3857625"/>
-          <a:ext cx="847725" cy="348330"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>调</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>81630</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="矩形 55"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8001000" y="3895725"/>
-          <a:ext cx="847725" cy="348330"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>调</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>21</xdr:row>
@@ -2615,6 +2417,508 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="矩形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4324350" y="14154150"/>
+          <a:ext cx="847725" cy="348330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>班</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>5430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="矩形 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5038725" y="14135100"/>
+          <a:ext cx="847725" cy="348330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>班</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>14955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="矩形 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4638675" y="14144625"/>
+          <a:ext cx="847725" cy="348330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>班</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6029325" y="11344275"/>
+          <a:ext cx="5915025" cy="5353050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>72105</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="矩形 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11134725" y="13296900"/>
+          <a:ext cx="847725" cy="348330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>调</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>100680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="矩形 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886700" y="3914775"/>
+          <a:ext cx="847725" cy="348330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>调</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>100680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="矩形 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7172325" y="3914775"/>
+          <a:ext cx="847725" cy="348330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>调</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>72105</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="矩形 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324600" y="3886200"/>
+          <a:ext cx="847725" cy="348330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>调</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2910,8 +3214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="R87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="N77" sqref="N77"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="U74" sqref="U74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/日历.xlsx
+++ b/日历.xlsx
@@ -2919,6 +2919,540 @@
             </a:rPr>
             <a:t>调</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="17192625"/>
+          <a:ext cx="5486400" cy="4953000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="矩形 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714499" y="20497800"/>
+          <a:ext cx="3552825" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="矩形 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19049" y="21231225"/>
+          <a:ext cx="3152776" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5715000" y="17202150"/>
+          <a:ext cx="5429250" cy="4905375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直接箭头连接符 65"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2114550" y="18830925"/>
+          <a:ext cx="1990725" cy="1866901"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直接箭头连接符 68"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2724150" y="19554825"/>
+          <a:ext cx="1419225" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>95255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28580</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直接箭头连接符 73"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2724150" y="20183480"/>
+          <a:ext cx="2105030" cy="1266820"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直接箭头连接符 75"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2028825" y="18611850"/>
+          <a:ext cx="7696200" cy="2876550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="矩形 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5810250" y="18992850"/>
+          <a:ext cx="5248275" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="矩形 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9534525" y="18268950"/>
+          <a:ext cx="1514476" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3214,8 +3748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="R87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="U74" sqref="U74"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="I107" sqref="I107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/日历.xlsx
+++ b/日历.xlsx
@@ -3456,6 +3456,333 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="矩形 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5848350" y="19726275"/>
+          <a:ext cx="3857625" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="矩形 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5838826" y="20450175"/>
+          <a:ext cx="3867150" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="矩形 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857875" y="21193125"/>
+          <a:ext cx="2905125" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>133353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直接箭头连接符 72"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="9053514" y="21559839"/>
+          <a:ext cx="361948" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>85730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>85728</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直接箭头连接符 77"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="6281739" y="20245391"/>
+          <a:ext cx="361948" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22259925"/>
+          <a:ext cx="5486400" cy="5534025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3748,8 +4075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="R87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="I107" sqref="I107"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
